--- a/dell/passed/C1VV2S2_config_report_conf_passed_report.xlsx
+++ b/dell/passed/C1VV2S2_config_report_conf_passed_report.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">"Blinking" not equal golden setting "Off" </t>
+          <t xml:space="preserve">"Off" not equal golden setting "Blinking" </t>
         </r>
       </text>
     </comment>
